--- a/assets_raw/image_edits.xlsx
+++ b/assets_raw/image_edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Java\Android\nolo\assets_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02601F-89DE-4489-86A0-514239FE440F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70EF617-67EF-4348-8301-6264AE2953E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>Laptops</t>
   </si>
@@ -90,17 +90,86 @@
     <t>Easy (remove tag)</t>
   </si>
   <si>
-    <t>Easy (remove bg)</t>
-  </si>
-  <si>
-    <t>Weird (doesn’t expand)</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Fix (white)</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Nokia G21</t>
+  </si>
+  <si>
+    <t>OnePlus 10 Pro</t>
+  </si>
+  <si>
+    <t>Huawei P40 Pro</t>
+  </si>
+  <si>
+    <t>Xiaomi 12 Pro</t>
+  </si>
+  <si>
+    <t>Nokia 225 4G</t>
+  </si>
+  <si>
+    <t>truncated???</t>
+  </si>
+  <si>
+    <t>Resize</t>
+  </si>
+  <si>
+    <t>Remove bg (also truncated)</t>
+  </si>
+  <si>
+    <t>Galaxy S22</t>
+  </si>
+  <si>
+    <t>Galaxy S22 Ultra</t>
+  </si>
+  <si>
+    <t>Remove bg</t>
+  </si>
+  <si>
+    <t>iPhone 13</t>
+  </si>
+  <si>
+    <t>iPhone 4</t>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max</t>
+  </si>
+  <si>
+    <t>iPhone 11</t>
+  </si>
+  <si>
+    <t>Remove bg / Resize</t>
+  </si>
+  <si>
+    <t>Accessory</t>
+  </si>
+  <si>
+    <t>two Lifeproof iPhone SE case?</t>
+  </si>
+  <si>
+    <t>two hyperX</t>
+  </si>
+  <si>
+    <t>two of everything</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +185,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +204,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +232,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,29 +519,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -494,8 +587,8 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -519,7 +612,7 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7">
@@ -558,8 +651,8 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -621,6 +714,216 @@
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets_raw/image_edits.xlsx
+++ b/assets_raw/image_edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Java\Android\nolo\assets_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70EF617-67EF-4348-8301-6264AE2953E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F988FD4-1D11-4687-BEF3-450A86E91EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>Laptops</t>
   </si>
@@ -87,15 +87,9 @@
     <t>Good</t>
   </si>
   <si>
-    <t>Easy (remove tag)</t>
-  </si>
-  <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>Fix (white)</t>
-  </si>
-  <si>
     <t>Phones</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
   </si>
   <si>
     <t>Resize</t>
-  </si>
-  <si>
-    <t>Remove bg (also truncated)</t>
   </si>
   <si>
     <t>Galaxy S22</t>
@@ -521,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -613,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -637,8 +628,8 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -652,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -698,7 +689,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D14">
@@ -718,10 +709,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
@@ -729,57 +720,57 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
@@ -787,76 +778,76 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
@@ -864,66 +855,66 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
         <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets_raw/image_edits.xlsx
+++ b/assets_raw/image_edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Java\Android\nolo\assets_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F988FD4-1D11-4687-BEF3-450A86E91EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FF10C-9D06-4CD4-AFC5-53E65A6815B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>Laptops</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Nokia 225 4G</t>
   </si>
   <si>
-    <t>truncated???</t>
-  </si>
-  <si>
     <t>Resize</t>
   </si>
   <si>
@@ -145,15 +142,6 @@
   </si>
   <si>
     <t>Accessory</t>
-  </si>
-  <si>
-    <t>two Lifeproof iPhone SE case?</t>
-  </si>
-  <si>
-    <t>two hyperX</t>
-  </si>
-  <si>
-    <t>two of everything</t>
   </si>
 </sst>
 </file>
@@ -510,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -718,7 +706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -726,10 +714,10 @@
         <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -737,35 +725,32 @@
         <v>24</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -776,7 +761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -784,137 +769,128 @@
         <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
       <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
